--- a/file/test_xssf.xlsx
+++ b/file/test_xssf.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26440" windowHeight="12720"/>
+    <workbookView windowWidth="26440" windowHeight="12720" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet4" sheetId="4" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -16,57 +16,887 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59">
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>订货号</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>型号</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>产品类别</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>价格组</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>单位</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>标准包装</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>发货单位</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最小订货量</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2020</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不含税单价</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2020</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>含税单价</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>备注</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"SAI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>接插件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>SAIBW-4/9-7/8"""</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>现场接线产品</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(PB)</t>
+    </r>
+  </si>
+  <si>
+    <t>I673</t>
+  </si>
+  <si>
+    <t>PC</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"SAI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>接插件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>SAISW-4/9-7/8"""</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0.3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>米以太网线</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> IE-C6FS8UG0003A40A40-G</t>
+    </r>
+  </si>
+  <si>
+    <t>I653</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1.5mm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>插孔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> SAI-M23-KBC-1.5-.14-.56</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>针</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>M12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，直针式</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>米</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>140</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>米光缆组件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> IE-FM5D2UE0140MLD0LD0X</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>芯公插芯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> SAI-M23-SE-16</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>芯母插芯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> SAI-M23-BE-16</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>动力</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据面板</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> IE-FC-IP-PWB/2ST</t>
+    </r>
+  </si>
+  <si>
+    <t>24Vdc-Rel.1U steh.5P.AgCdO WHU/GD10C</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>电子产品</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(PA)</t>
+    </r>
+  </si>
+  <si>
+    <t>E531</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>30mm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>塑料卡脚</t>
+    </r>
+  </si>
+  <si>
+    <t>D900</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>重载</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>HDC 24B TOBO 1PG29G</t>
+    </r>
+  </si>
+  <si>
+    <t>P201</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>46</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>芯重载连接器套件</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>芯大电流连接器公插芯，带专用螺钉</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>路</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>针带</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>M23NPN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>型分配器</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>针直式</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>M12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>孔式电缆，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>米</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>针直式</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>M12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>孔式电缆，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>米</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>50µmSC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>多模光纤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>米</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>类</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">RJ45 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>网线</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>米</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> IE-C5ES8UG0020M40M40-G</t>
+    </r>
+  </si>
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>型号</t>
+  </si>
+  <si>
+    <t>订货号</t>
+  </si>
+  <si>
+    <t>物料编号</t>
+  </si>
   <si>
     <t>品牌</t>
-  </si>
-  <si>
-    <t>匹配编号</t>
-  </si>
-  <si>
-    <t>最低折扣</t>
-  </si>
-  <si>
-    <t>通用价格</t>
-  </si>
-  <si>
-    <t>客价</t>
-  </si>
-  <si>
-    <t>B2</t>
-  </si>
-  <si>
-    <t>A3</t>
-  </si>
-  <si>
-    <t>NSK</t>
-  </si>
-  <si>
-    <t>/SI/BN5026255</t>
-  </si>
-  <si>
-    <t>文依</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>HSKM12G</t>
-  </si>
-  <si>
-    <t>昆杰</t>
-  </si>
-  <si>
-    <t>序号</t>
-  </si>
-  <si>
-    <t>型号</t>
-  </si>
-  <si>
-    <t>订货号</t>
-  </si>
-  <si>
-    <t>物料编号</t>
   </si>
   <si>
     <t>总库存</t>
@@ -121,13 +951,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.0000_);[Red]\(0.0000\)"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,18 +972,29 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="9.75"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Arial"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -169,14 +1011,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -190,23 +1024,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,6 +1039,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -228,25 +1055,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -261,8 +1071,30 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -275,25 +1107,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -304,6 +1130,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -311,12 +1158,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Arial"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -325,13 +1173,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE6F7FF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFAFAFA"/>
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -349,61 +1191,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,73 +1341,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -493,24 +1353,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -522,7 +1364,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -531,11 +1373,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFE8E8E8"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -544,7 +1392,31 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -566,50 +1438,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -631,192 +1462,206 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
   </cellXfs>
@@ -1171,104 +2016,727 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="13.375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="31.75" customWidth="1"/>
+    <col min="3" max="3" width="17.5" customWidth="1"/>
+    <col min="4" max="4" width="10.125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:8">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="6" t="s">
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="2:8">
-      <c r="B2" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="4" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="2">
+      <c r="J1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="2">
-        <v>10</v>
-      </c>
-      <c r="H3" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8">
-      <c r="B4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="3" t="s">
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="5">
+        <v>1812470000</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="2">
-        <v>1</v>
-      </c>
-      <c r="G4" s="2">
-        <v>1</v>
-      </c>
-      <c r="H4" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8">
-      <c r="B5" s="3" t="s">
+      <c r="C2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3">
-        <v>1001400210</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2">
-        <v>10</v>
-      </c>
+      <c r="D2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="6">
+        <v>1</v>
+      </c>
+      <c r="G2" s="6">
+        <v>1</v>
+      </c>
+      <c r="H2" s="6">
+        <v>-1</v>
+      </c>
+      <c r="I2" s="10">
+        <v>301.563</v>
+      </c>
+      <c r="J2" s="11">
+        <v>301.563</v>
+      </c>
+      <c r="K2" s="12">
+        <v>44112</v>
+      </c>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="5">
+        <v>1808830000</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="6">
+        <v>1</v>
+      </c>
+      <c r="G3" s="6">
+        <v>1</v>
+      </c>
+      <c r="H3" s="6">
+        <v>11</v>
+      </c>
+      <c r="I3" s="10">
+        <v>275.1246</v>
+      </c>
+      <c r="J3" s="11">
+        <v>310.89</v>
+      </c>
+      <c r="K3" s="12">
+        <v>44112</v>
+      </c>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="5">
+        <v>8941350003</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="6">
+        <v>1</v>
+      </c>
+      <c r="G4" s="6">
+        <v>1</v>
+      </c>
+      <c r="H4" s="6">
+        <v>12</v>
+      </c>
+      <c r="I4" s="10">
+        <v>53.3952</v>
+      </c>
+      <c r="J4" s="11">
+        <v>60.34</v>
+      </c>
+      <c r="K4" s="12">
+        <v>44112</v>
+      </c>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="5">
+        <v>1170230000</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="6">
+        <v>50</v>
+      </c>
+      <c r="G5" s="6">
+        <v>1</v>
+      </c>
+      <c r="H5" s="6">
+        <v>12.1</v>
+      </c>
+      <c r="I5" s="10">
+        <v>10.9306</v>
+      </c>
+      <c r="J5" s="10">
+        <v>12.35</v>
+      </c>
+      <c r="K5" s="12">
+        <v>44112</v>
+      </c>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="5">
+        <v>1311700150</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="6">
+        <v>1</v>
+      </c>
+      <c r="H6" s="6">
+        <v>-12.1</v>
+      </c>
+      <c r="I6" s="10">
+        <v>215.6382</v>
+      </c>
+      <c r="J6" s="11">
+        <v>243.67</v>
+      </c>
+      <c r="K6" s="12">
+        <v>44112</v>
+      </c>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="5">
+        <v>2025380000</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="6">
+        <v>1</v>
+      </c>
+      <c r="G7" s="6">
+        <v>1</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0</v>
+      </c>
+      <c r="I7" s="10">
+        <v>5833.0919</v>
+      </c>
+      <c r="J7" s="11">
+        <v>6591.39</v>
+      </c>
+      <c r="K7" s="10"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="5">
+        <v>1170080000</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="6">
+        <v>1</v>
+      </c>
+      <c r="G8" s="6">
+        <v>1</v>
+      </c>
+      <c r="H8" s="6">
+        <v>0</v>
+      </c>
+      <c r="I8" s="10">
+        <v>28.917</v>
+      </c>
+      <c r="J8" s="10">
+        <v>32.68</v>
+      </c>
+      <c r="K8" s="10"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="5">
+        <v>1170090000</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="6">
+        <v>1</v>
+      </c>
+      <c r="G9" s="6">
+        <v>1</v>
+      </c>
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
+      <c r="I9" s="10">
+        <v>28.917</v>
+      </c>
+      <c r="J9" s="10">
+        <v>32.68</v>
+      </c>
+      <c r="K9" s="10"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="5">
+        <v>1450630000</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="6">
+        <v>1</v>
+      </c>
+      <c r="G10" s="6">
+        <v>1</v>
+      </c>
+      <c r="H10" s="6">
+        <v>0</v>
+      </c>
+      <c r="I10" s="10">
+        <v>60.6042</v>
+      </c>
+      <c r="J10" s="11">
+        <v>68.48</v>
+      </c>
+      <c r="K10" s="10"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="5">
+        <v>4149150000</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="6">
+        <v>1</v>
+      </c>
+      <c r="G11" s="6">
+        <v>0</v>
+      </c>
+      <c r="H11" s="6">
+        <v>0</v>
+      </c>
+      <c r="I11" s="10">
+        <v>152.1631</v>
+      </c>
+      <c r="J11" s="11">
+        <v>171.94</v>
+      </c>
+      <c r="K11" s="13"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="15"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="5">
+        <v>7760052118</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="6">
+        <v>1</v>
+      </c>
+      <c r="G12" s="6">
+        <v>0</v>
+      </c>
+      <c r="H12" s="6">
+        <v>0</v>
+      </c>
+      <c r="I12" s="10">
+        <v>20</v>
+      </c>
+      <c r="J12" s="10">
+        <v>22.6</v>
+      </c>
+      <c r="K12" s="10"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="5">
+        <v>1662020000</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="6">
+        <v>1</v>
+      </c>
+      <c r="G13" s="6">
+        <v>1</v>
+      </c>
+      <c r="H13" s="6">
+        <v>0</v>
+      </c>
+      <c r="I13" s="10">
+        <v>132.4188</v>
+      </c>
+      <c r="J13" s="11">
+        <v>149.63</v>
+      </c>
+      <c r="K13" s="10"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="5">
+        <v>2471510000</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="6">
+        <v>1</v>
+      </c>
+      <c r="G14" s="6">
+        <v>1</v>
+      </c>
+      <c r="H14" s="6">
+        <v>1</v>
+      </c>
+      <c r="I14" s="10">
+        <v>565.7947</v>
+      </c>
+      <c r="J14" s="11">
+        <v>639.35</v>
+      </c>
+      <c r="K14" s="10"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="5">
+        <v>2476470000</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="6">
+        <v>1</v>
+      </c>
+      <c r="G15" s="6">
+        <v>1</v>
+      </c>
+      <c r="H15" s="6">
+        <v>1</v>
+      </c>
+      <c r="I15" s="10">
+        <v>185.35</v>
+      </c>
+      <c r="J15" s="11">
+        <v>209.45</v>
+      </c>
+      <c r="K15" s="10"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="5">
+        <v>1512950000</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="6">
+        <v>1</v>
+      </c>
+      <c r="G16" s="6">
+        <v>1</v>
+      </c>
+      <c r="H16" s="6">
+        <v>0</v>
+      </c>
+      <c r="I16" s="10">
+        <v>426.9996</v>
+      </c>
+      <c r="J16" s="11">
+        <v>482.51</v>
+      </c>
+      <c r="K16" s="10"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="5">
+        <v>1968580150</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="6">
+        <v>1</v>
+      </c>
+      <c r="G17" s="6">
+        <v>1</v>
+      </c>
+      <c r="H17" s="6">
+        <v>0</v>
+      </c>
+      <c r="I17" s="10">
+        <v>80.1414</v>
+      </c>
+      <c r="J17" s="11">
+        <v>90.56</v>
+      </c>
+      <c r="K17" s="10"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="5">
+        <v>1968580500</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="6">
+        <v>1</v>
+      </c>
+      <c r="G18" s="6">
+        <v>1</v>
+      </c>
+      <c r="H18" s="6">
+        <v>0</v>
+      </c>
+      <c r="I18" s="10">
+        <v>129.0524</v>
+      </c>
+      <c r="J18" s="11">
+        <v>145.83</v>
+      </c>
+      <c r="K18" s="10"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="5">
+        <v>8876430500</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="6">
+        <v>1</v>
+      </c>
+      <c r="G19" s="6">
+        <v>1</v>
+      </c>
+      <c r="H19" s="6">
+        <v>0</v>
+      </c>
+      <c r="I19" s="10">
+        <v>2218.5706</v>
+      </c>
+      <c r="J19" s="11">
+        <v>2506.98</v>
+      </c>
+      <c r="K19" s="10"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="5">
+        <v>1166000020</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="6">
+        <v>1</v>
+      </c>
+      <c r="G20" s="6">
+        <v>1</v>
+      </c>
+      <c r="H20" s="6">
+        <v>0</v>
+      </c>
+      <c r="I20" s="10">
+        <v>77.5899</v>
+      </c>
+      <c r="J20" s="11">
+        <v>87.68</v>
+      </c>
+      <c r="K20" s="10"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="256" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -1278,34 +2746,34 @@
   <sheetPr/>
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
-    <col min="2" max="2" width="29.4333333333333" customWidth="1"/>
+    <col min="2" max="2" width="12.6333333333333" customWidth="1"/>
     <col min="3" max="3" width="16.8083333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="E1" t="s">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="F1" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1313,13 +2781,14 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="C2">
         <v>1683840000</v>
       </c>
+      <c r="D2"/>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="F2">
         <v>200</v>
@@ -1330,13 +2799,14 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="C3">
         <v>1608570000</v>
       </c>
+      <c r="D3"/>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="F3">
         <v>201</v>
@@ -1347,13 +2817,14 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="C4">
         <v>1608800000</v>
       </c>
+      <c r="D4"/>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="F4">
         <v>202</v>
@@ -1364,14 +2835,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>23</v>
+        <v>48</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>49</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="F5" s="1">
         <v>203</v>
@@ -1384,14 +2855,14 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="C6" s="1">
         <v>1166000020</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="F6" s="1">
         <v>204</v>
@@ -1404,14 +2875,14 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="C7" s="1">
         <v>1170080000</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="F7" s="1">
         <v>205</v>
@@ -1424,14 +2895,14 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="C8" s="1">
         <v>1170090000</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="F8" s="1">
         <v>206</v>
@@ -1444,14 +2915,14 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="C9" s="1">
         <v>1662020000</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="F9" s="1">
         <v>207</v>
@@ -1463,11 +2934,11 @@
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="F10" s="1">
         <v>10</v>
@@ -1479,11 +2950,11 @@
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="F11" s="1">
         <v>10</v>
@@ -1495,11 +2966,11 @@
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="F12" s="1">
         <v>10</v>
@@ -1569,17 +3040,11 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B$1:B$1048576"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
